--- a/medicine/Enfance/Sara_Cone_Bryant/Sara_Cone_Bryant.xlsx
+++ b/medicine/Enfance/Sara_Cone_Bryant/Sara_Cone_Bryant.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sara Cone Bryant, née en 1873 aux États-Unis, est un auteur majeur de contes pour enfants. On lui doit Souricette et Épaminondas. Elle a écrit des versions de Boucles d'or et les Trois Ours, Les Trois Petits Cochons et La Petite Poule rousse. Son nom de plume est Miss Sara Cone Bryant, mais aussi Mrs. Theodore F. Borst et Sara Bryant Borst.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nous disposons de peu d'informations sur sa vie. Elle est née à Melrose (Massachussets) le 4 janvier 1873. Elle a vécu à New York et a épousé en 1935[1] Franz Theodore Borst.
-Elle a enseigné la littérature et la poésie anglaise au collège de Simmons à Boston de 1904 à 1906[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nous disposons de peu d'informations sur sa vie. Elle est née à Melrose (Massachussets) le 4 janvier 1873. Elle a vécu à New York et a épousé en 1935 Franz Theodore Borst.
+Elle a enseigné la littérature et la poésie anglaise au collège de Simmons à Boston de 1904 à 1906.
 Son frère, Albert Bryant, a épousé Ettye Fletcher, fille de Charles Henry Fletcher (en), directeur de la société pharmaceutique Centaure (en) qui devint plus tard la Sterling Drug (en).
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Son œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a été publiée aux États-Unis par Houghton Mifflin Company, au Royaume-Uni par George G. Harrap &amp; Co. Ltd et en France par Fernand Nathan. Elle a édité en 1917 deux ouvrages de Harriet Martineau et Juliana Horatia Ewing chez un éditeur de Boston : Ginn &amp; Co.
-Michèle Cochet rappelle que, « dans son livre paru en 1905, très novateur pour l'époque, How to Tell Stories to Children and Some Stories to Tell (Comment raconter des histoires à nos enfants et quelques histoires à raconter, Fernand Nathan, 1911), elle a puisé dans son expérience de conteuse pour donner aux éducateurs des conseils pratiques sur l'art de conter. Elle y présente un répertoire adapté aux plus petits, mettant l'accent sur l'importance de la transmission orale des contes, dont les valeurs éducatives et esthétiques lui semblent contribuer au développement intellectuel de l'enfant »[3]. De très nombreuses traductions en français ont été éditées dans les collections de littérature de jeunesse ou en ligne[4].
+Michèle Cochet rappelle que, « dans son livre paru en 1905, très novateur pour l'époque, How to Tell Stories to Children and Some Stories to Tell (Comment raconter des histoires à nos enfants et quelques histoires à raconter, Fernand Nathan, 1911), elle a puisé dans son expérience de conteuse pour donner aux éducateurs des conseils pratiques sur l'art de conter. Elle y présente un répertoire adapté aux plus petits, mettant l'accent sur l'importance de la transmission orale des contes, dont les valeurs éducatives et esthétiques lui semblent contribuer au développement intellectuel de l'enfant ». De très nombreuses traductions en français ont été éditées dans les collections de littérature de jeunesse ou en ligne.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Liste des contes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titres alternatifs suivant les traductions
 La Maison que Pierre a bâtie
